--- a/code_Tom/docker/v2/app2/surveillance.xlsx
+++ b/code_Tom/docker/v2/app2/surveillance.xlsx
@@ -1,17 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27221"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="15" documentId="11_9248CACD84F5E813E97046798E3E8C1851038385" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{149E5A53-754A-40A9-90EB-CCF5C2E98410}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilboudob\Documents\surveillance\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31582460-48B8-4012-8187-E2EF23D1DA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="finess" sheetId="1" r:id="rId1"/>
-    <sheet name="Adhérants" sheetId="2" r:id="rId2"/>
+    <sheet name="Adhérents" sheetId="1" r:id="rId1"/>
+    <sheet name="Tiers" sheetId="2" r:id="rId2"/>
+    <sheet name="Usurpation TIERS" sheetId="3" r:id="rId3"/>
+    <sheet name="finess" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,28 +39,579 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Nom Complet</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="183">
   <si>
     <t>DATE DE NAISSANCE</t>
   </si>
   <si>
+    <t>NUMERO FINESS</t>
+  </si>
+  <si>
+    <t>NOM DU TIERS</t>
+  </si>
+  <si>
+    <t>Centre dentaire Adent</t>
+  </si>
+  <si>
+    <t>CDS Dentaire- Docteur PLAZZA Joao</t>
+  </si>
+  <si>
+    <t>Docteur GESLIN Laurent</t>
+  </si>
+  <si>
+    <t>Docteur COHEN Lyhor</t>
+  </si>
+  <si>
+    <t>CH François Quesnay Mantes La Jolie</t>
+  </si>
+  <si>
+    <t>SV Optique Opticien</t>
+  </si>
+  <si>
+    <t>CLINADENT Paris Felix Faure</t>
+  </si>
+  <si>
+    <t>Docteur LARCHER Yann</t>
+  </si>
+  <si>
     <t>PAULET Zakia Thérèse</t>
+  </si>
+  <si>
+    <t>LOPES Eddy Klein</t>
+  </si>
+  <si>
+    <t>ADJIRI Samia</t>
+  </si>
+  <si>
+    <t>DONCHET Christiane</t>
+  </si>
+  <si>
+    <t>MOURRE Julie</t>
+  </si>
+  <si>
+    <t>FERBER Claudie</t>
+  </si>
+  <si>
+    <t>Polyclinique Saint Privat</t>
+  </si>
+  <si>
+    <t>Dr BADERSPACH Thierry</t>
+  </si>
+  <si>
+    <t>CH PIERRE OUDOT BOURGOIN JALLIEU </t>
+  </si>
+  <si>
+    <t>Dr MADAR Gaston</t>
+  </si>
+  <si>
+    <t>ILINGANDJA Jennifer</t>
+  </si>
+  <si>
+    <t>Dr LARCHER Yann</t>
+  </si>
+  <si>
+    <t>SAIDANI Farid</t>
+  </si>
+  <si>
+    <t>MOSLIHINE Mohamed</t>
+  </si>
+  <si>
+    <t>DIALLO Amadou</t>
+  </si>
+  <si>
+    <t>SOUSSAN Patricia</t>
+  </si>
+  <si>
+    <t>FARREAUX William</t>
+  </si>
+  <si>
+    <t>CHAIGNEAU Bruno</t>
+  </si>
+  <si>
+    <t>CHEBIRA Samir</t>
+  </si>
+  <si>
+    <t>PARISI Anna</t>
+  </si>
+  <si>
+    <t>LEHILA Sabrina</t>
+  </si>
+  <si>
+    <t>COSSE Sylvain</t>
+  </si>
+  <si>
+    <t>MINGEDI Emile</t>
+  </si>
+  <si>
+    <t>MALKI Mehdi</t>
+  </si>
+  <si>
+    <t>EZZAHER Ayoub</t>
+  </si>
+  <si>
+    <t>ATTOU Fouzia</t>
+  </si>
+  <si>
+    <t>BOUHEMBEL Faiza</t>
+  </si>
+  <si>
+    <t>COLOMBIER Saida</t>
+  </si>
+  <si>
+    <t>BARNAVON Céline</t>
+  </si>
+  <si>
+    <t>BONNET Adrien</t>
+  </si>
+  <si>
+    <t>GUEDJ Didier</t>
+  </si>
+  <si>
+    <t>BRAIDJI Sabrina</t>
+  </si>
+  <si>
+    <t>KODIA Clémentine</t>
+  </si>
+  <si>
+    <t>COSAR Ahmet</t>
+  </si>
+  <si>
+    <t>DROUIN Caroline</t>
+  </si>
+  <si>
+    <t>LE PALUD Laurent</t>
+  </si>
+  <si>
+    <t>Dr HAYON Jean Philippe</t>
+  </si>
+  <si>
+    <t>Dr FELTESSE Didier</t>
+  </si>
+  <si>
+    <t>Dr BONNAIRE Yossi</t>
+  </si>
+  <si>
+    <t>SAFFAR Yves</t>
+  </si>
+  <si>
+    <t>Dr TAYEBJEE Courech</t>
+  </si>
+  <si>
+    <t>FREQUENCE AUDIO</t>
+  </si>
+  <si>
+    <t>TED OPTIQUE</t>
+  </si>
+  <si>
+    <t>OZIRIS OPTIQUE</t>
+  </si>
+  <si>
+    <t>OPTICAL DISCOUNT</t>
+  </si>
+  <si>
+    <t>OPTIC  ST HONORE</t>
+  </si>
+  <si>
+    <t>OPTIC THIERRY</t>
+  </si>
+  <si>
+    <t>OPTIQUE BOISSIERE</t>
+  </si>
+  <si>
+    <t>DENTELIA</t>
+  </si>
+  <si>
+    <t>BRUNO OPTIQUE</t>
+  </si>
+  <si>
+    <t>CHERVOILLOT Christophe</t>
+  </si>
+  <si>
+    <t>OPTIC CARAVELLE</t>
+  </si>
+  <si>
+    <t>CLINIQUE TOURNAN EN BRIE</t>
+  </si>
+  <si>
+    <t>CENTRE SANTE DENTAIRE MUTUALISTE</t>
+  </si>
+  <si>
+    <t>SAS LES ACACIAS</t>
+  </si>
+  <si>
+    <t>050000488</t>
+  </si>
+  <si>
+    <t>384001681</t>
+  </si>
+  <si>
+    <t>Dr Sodavy MOEUNG</t>
+  </si>
+  <si>
+    <t>Dr MOURIER Francois</t>
+  </si>
+  <si>
+    <t>Dr COHEN Ilana</t>
+  </si>
+  <si>
+    <t>530000264</t>
+  </si>
+  <si>
+    <t>490000049</t>
+  </si>
+  <si>
+    <t>CHU ANGERS Trésorerie d'ANGERS</t>
+  </si>
+  <si>
+    <t>CH LAVAL Trésorerie De LAVAL</t>
+  </si>
+  <si>
+    <t>OPTIQUE LUPUS</t>
+  </si>
+  <si>
+    <t>752614396 </t>
+  </si>
+  <si>
+    <t>Optical Discount</t>
+  </si>
+  <si>
+    <t>924140205 </t>
+  </si>
+  <si>
+    <t>Dr BOUTEMINE Lila</t>
+  </si>
+  <si>
+    <t>RIDA Mourad</t>
+  </si>
+  <si>
+    <t>NOM Complet</t>
+  </si>
+  <si>
+    <t>PELONDE Steeve</t>
+  </si>
+  <si>
+    <t>BRESSON Nicole</t>
+  </si>
+  <si>
+    <t>MARQUART Alexandre</t>
+  </si>
+  <si>
+    <t>MORABIT Naima</t>
+  </si>
+  <si>
+    <t>TALIBI Salim</t>
+  </si>
+  <si>
+    <t>EGLER Marie Yvonne</t>
+  </si>
+  <si>
+    <t>750060337</t>
+  </si>
+  <si>
+    <t>KESSOUS DAVID</t>
+  </si>
+  <si>
+    <t>CENTRE DENTAIRE DR ADLER RUBEN</t>
+  </si>
+  <si>
+    <t>LES OPTICIENS LYONNAIS SARL</t>
+  </si>
+  <si>
+    <t>FONDON PARRA David</t>
+  </si>
+  <si>
+    <t>NIZART Médit</t>
+  </si>
+  <si>
+    <t>LES OPTICIENS A DOMICILE</t>
+  </si>
+  <si>
+    <t>KHALLOUFI Yassin</t>
+  </si>
+  <si>
+    <t>AUPY CHOLLET Julien</t>
+  </si>
+  <si>
+    <t>751418526</t>
+  </si>
+  <si>
+    <t>752619890</t>
+  </si>
+  <si>
+    <t>Docteur BOKOBZA Yves</t>
+  </si>
+  <si>
+    <t>ATELIER LOU OPTIQUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COQUART Christine</t>
+  </si>
+  <si>
+    <t>DAUMAS Ryan</t>
+  </si>
+  <si>
+    <t>MORAIS Raphael</t>
+  </si>
+  <si>
+    <t>BERNARD Jean-Luc</t>
+  </si>
+  <si>
+    <t>SPAGNOL  Sabine</t>
+  </si>
+  <si>
+    <t>590780235</t>
+  </si>
+  <si>
+    <t>082611062</t>
+  </si>
+  <si>
+    <t>844007609 </t>
+  </si>
+  <si>
+    <t>BOYLAMBA Edmond</t>
+  </si>
+  <si>
+    <t>LE COLOMBIER</t>
+  </si>
+  <si>
+    <t>LEMIERE ET LAURENT OPTICIEN</t>
+  </si>
+  <si>
+    <t>CERCLE AUDITION</t>
+  </si>
+  <si>
+    <t>CLINIQUE LA MAISON FLEURIE</t>
+  </si>
+  <si>
+    <t>Coffre à Lunette</t>
+  </si>
+  <si>
+    <t>VU BY</t>
+  </si>
+  <si>
+    <t>132604844</t>
+  </si>
+  <si>
+    <t>OPTICA</t>
+  </si>
+  <si>
+    <t>754709954</t>
+  </si>
+  <si>
+    <t>Dr Cohen Avi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dr Frédéric DEFLINE</t>
+  </si>
+  <si>
+    <t>752619668</t>
+  </si>
+  <si>
+    <t>HISTOIRE D'OPTIC VISION EL</t>
+  </si>
+  <si>
+    <t> BONNET Jean-Marie.</t>
+  </si>
+  <si>
+    <t>920018058</t>
+  </si>
+  <si>
+    <t>Docteur Brigitte DAHAN</t>
+  </si>
+  <si>
+    <t>450000088</t>
+  </si>
+  <si>
+    <t>CHR ORLEANS</t>
+  </si>
+  <si>
+    <t>Dr AMAR serge</t>
+  </si>
+  <si>
+    <t>AJAOUN Faicel</t>
+  </si>
+  <si>
+    <t>OPHTALYA ENGHIEN</t>
+  </si>
+  <si>
+    <t>750061970</t>
+  </si>
+  <si>
+    <t>CENTRE DENTAIRE ADENT</t>
+  </si>
+  <si>
+    <t>954042677</t>
+  </si>
+  <si>
+    <t>Dr Behdad FAZAIEE</t>
+  </si>
+  <si>
+    <t>DIOP Babacar</t>
+  </si>
+  <si>
+    <t>EURL MR OPTIC</t>
+  </si>
+  <si>
+    <t>PHARMACIE DES ECOLES</t>
+  </si>
+  <si>
+    <t>514010214</t>
+  </si>
+  <si>
+    <t>Dr Maud COTRET</t>
+  </si>
+  <si>
+    <t>750067530 </t>
+  </si>
+  <si>
+    <t>INOUIE AUDITION</t>
+  </si>
+  <si>
+    <t>DR Vincent RONCO</t>
+  </si>
+  <si>
+    <t>950045047 </t>
+  </si>
+  <si>
+    <t>CDS DENTAIRE LA GALATHEE</t>
+  </si>
+  <si>
+    <t>DR M FRANCK LEVY</t>
+  </si>
+  <si>
+    <t>MIMOUNI Laetita</t>
+  </si>
+  <si>
+    <t>HARMI Abou</t>
+  </si>
+  <si>
+    <t>ARGENTON Tristan</t>
+  </si>
+  <si>
+    <t>VERGE David</t>
+  </si>
+  <si>
+    <t>COHEN Laeticia</t>
+  </si>
+  <si>
+    <t>060789674</t>
+  </si>
+  <si>
+    <t>MAULBECKER Alain</t>
+  </si>
+  <si>
+    <t>AESCHELMAN Jean Paul</t>
+  </si>
+  <si>
+    <t>AITOUAZZOU Amrane</t>
+  </si>
+  <si>
+    <t>BAILLY Eliane</t>
+  </si>
+  <si>
+    <t>BECK Alain</t>
+  </si>
+  <si>
+    <t>BIEBER Rachel</t>
+  </si>
+  <si>
+    <t>BITSCH Marion</t>
+  </si>
+  <si>
+    <t>BOUR Maurice</t>
+  </si>
+  <si>
+    <t>CHARLE Gilles</t>
+  </si>
+  <si>
+    <t>DEPOUTOT Mia</t>
+  </si>
+  <si>
+    <t>ECKART Régis</t>
+  </si>
+  <si>
+    <t>KARNEEV Sandrine</t>
+  </si>
+  <si>
+    <t>KOENIG Gaëlle</t>
+  </si>
+  <si>
+    <t>LARGILLIERE Christine</t>
+  </si>
+  <si>
+    <t>MORIZOT Henri</t>
+  </si>
+  <si>
+    <t>STOLL Richard</t>
+  </si>
+  <si>
+    <t>THIBAULT Claire</t>
+  </si>
+  <si>
+    <t>THOUROUDE Pascal</t>
+  </si>
+  <si>
+    <t>TOUSEAU Lysiane</t>
+  </si>
+  <si>
+    <t>VANCOPPENOLLE Stéphane</t>
+  </si>
+  <si>
+    <t>VOELCKEL Micheline</t>
+  </si>
+  <si>
+    <t>CHEMLALI Mabrouka</t>
+  </si>
+  <si>
+    <t>026103812</t>
+  </si>
+  <si>
+    <t>066026444</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 066896994</t>
+  </si>
+  <si>
+    <t>066124298</t>
+  </si>
+  <si>
+    <t>754158301 </t>
+  </si>
+  <si>
+    <t>NAMANE Sofiane</t>
+  </si>
+  <si>
+    <t>MARTINEZ Victoria</t>
+  </si>
+  <si>
+    <t>LOUIVIS David</t>
+  </si>
+  <si>
+    <t>CHEDED Nacima</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -64,7 +622,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -72,19 +630,52 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -97,7 +688,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -393,73 +984,1825 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A4"/>
+  <sheetPr codeName="Feuil1"/>
+  <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="41.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1">
-        <v>750068181</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>954704060</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3">
-        <v>750061970</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4">
-        <v>930023145</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2">
+        <v>25797</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2">
+        <v>35529</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>27419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="2">
+        <v>21095</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>31760</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2">
+        <v>30147</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="2">
+        <v>35005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="2">
+        <v>23500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="2">
+        <v>30888</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>32609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="2">
+        <v>27280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="2">
+        <v>27752</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="2">
+        <v>22125</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2">
+        <v>33816</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="2">
+        <v>24028</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="2">
+        <v>35125</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="2">
+        <v>30937</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2">
+        <v>25643</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2">
+        <v>30662</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="2">
+        <v>35872</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="2">
+        <v>19134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="2">
+        <v>25585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="2">
+        <v>28897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="2">
+        <v>21875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="2">
+        <v>35972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="2">
+        <v>22787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B28" s="2">
+        <v>29053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="2">
+        <v>26839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30" s="2">
+        <v>33614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="2">
+        <v>30517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="2">
+        <v>26210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="2">
+        <v>32216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B35" s="2">
+        <v>31351</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" s="2">
+        <v>26210</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="2">
+        <v>32216</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B38" s="2">
+        <v>32503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="2">
+        <v>20123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="2">
+        <v>31003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="2">
+        <v>29722</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B42" s="2">
+        <v>31224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B43" s="2">
+        <v>25020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B44" s="2">
+        <v>38095</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B45" s="2">
+        <v>38106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B46" s="2">
+        <v>22176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B47" s="2">
+        <v>31854</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="2">
+        <v>33454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" s="2">
+        <v>27348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B50" s="2">
+        <v>29774</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B51" s="2">
+        <v>33709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B52" s="2">
+        <v>28871</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B53" s="2">
+        <v>35025</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B54" s="2">
+        <v>37516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" s="2">
+        <v>36651</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" s="2">
+        <v>17957</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B57" s="2">
+        <v>19590</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" s="2">
+        <v>24735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B59" s="2">
+        <v>23632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="2">
+        <v>21245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="2">
+        <v>25812</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B62" s="2">
+        <v>31867</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="2">
+        <v>23345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B64" s="2">
+        <v>31188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="2">
+        <v>35365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B66" s="2">
+        <v>32310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="2">
+        <v>25864</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B68" s="2">
+        <v>28729</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="2">
+        <v>21906</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" s="2">
+        <v>15220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B71" s="2">
+        <v>14635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" s="2">
+        <v>34396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B73" s="2">
+        <v>22053</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B74" s="2">
+        <v>29783</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B75" s="2">
+        <v>24915</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B76" s="2">
+        <v>17256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B77" s="2">
+        <v>32683</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B78" s="2">
+        <v>32515</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B79" s="2">
+        <v>36651</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B80" s="2">
+        <v>35005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B81" s="2">
+        <v>37665</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B82" s="2">
+        <v>35841</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B83" s="2">
+        <v>26467</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B96AE8A0-0877-4090-AF44-3DA749657CE2}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr codeName="Feuil2"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
-        <v>25797</v>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>750068181</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>380000034</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>751396607</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>751721473</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>574920104</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>574014676</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>924701824</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>922619796</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>752608208</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>132660614</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>132655978</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>752617829</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>752615518</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>132651761</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>932656259</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>930029145</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>752608497</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>572624138</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>692681117</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>714002367</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>944702349</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>542667381</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>340780253</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>502600273</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>590780235</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>622699312</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>572012847</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>672666369</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>950044651</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>942614504</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr codeName="Feuil3"/>
+  <dimension ref="A1:C43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>954704060</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>750061970</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>930029145</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>911701084</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>780000287</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>932658776</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>784046153</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>340015965</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>694021023</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>924701998</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>784046153</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>934173907</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>782666770</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>770790707</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>340782275</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>134021054</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>950045138</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>750064164</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="6"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5">
+        <v>694802885</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>144005030</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>932659881</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>754186575</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr codeName="Feuil4"/>
+  <dimension ref="A1:A95"/>
+  <sheetViews>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93:A95"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>750068181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>954704060</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>750061970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>930029145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>911701084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>780000287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>932658776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>784046153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>340015965</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>694021023</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>380000034</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>924701998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>751396607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>751721473</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
+        <v>784046153</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>574920104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>574014676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>924701824</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>934173907</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>752608497</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>782666770</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>770790707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>340782275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>384001681</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>134021054</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>950045138</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>530000264</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>490000049</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>572624138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="7">
+        <v>752614396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7">
+        <v>924140205</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>692681117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>750060337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="5">
+        <v>750064164</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>714002367</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>944702349</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>542667381</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>751418526</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>752619890</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>132604844</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>754709954</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>340780253</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>502600273</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>844007609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>694802885</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>752619668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>144005030</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>622699312</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>672666369</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>920018058</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>450000088</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>750061970</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>572012847</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>954042677</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>950044651</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>942614504</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>754186575</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>950045047</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>751629049</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>930026240</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="5">
+        <v>750100125</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="5">
+        <v>560008799</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>670018746</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>752634485</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>590781951</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>706306677</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>706316569</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>383710407</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>706323441</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>700780620</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>696708148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>336703798</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>700780448</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>754704286</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>254710312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>590817839</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>640780490</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="5">
+        <v>650785850</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="5">
+        <v>590060117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="5">
+        <v>930029020</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="5">
+        <v>914044565</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="5">
+        <v>750300360</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>930026240</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="5">
+        <v>944004894</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>752633792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/code_Tom/docker/v2/app2/surveillance.xlsx
+++ b/code_Tom/docker/v2/app2/surveillance.xlsx
@@ -1,45 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ilboudob\Documents\surveillance\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\mmc.lo\Serveur\PRST - Agent Prestations\PRESTATIONS\Lettres&amp;Fax\SANDRINE\CELLULE ABUS ET FRAUDES\7-LISTE DE SURVEILLANCE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31582460-48B8-4012-8187-E2EF23D1DA71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0528EBF2-5F53-4702-BDDD-F3F6D1807964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Adhérents" sheetId="1" r:id="rId1"/>
-    <sheet name="Tiers" sheetId="2" r:id="rId2"/>
-    <sheet name="Usurpation TIERS" sheetId="3" r:id="rId3"/>
-    <sheet name="finess" sheetId="4" r:id="rId4"/>
+    <sheet name="Feuil1" sheetId="5" r:id="rId1"/>
+    <sheet name="Adhérents" sheetId="1" r:id="rId2"/>
+    <sheet name="Tiers" sheetId="2" r:id="rId3"/>
+    <sheet name="Usurpation TIERS" sheetId="3" r:id="rId4"/>
+    <sheet name="FINESS" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Adhérents!$A$1:$B$77</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tiers!$A$1:$B$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Usurpation TIERS'!$A$1:$D$1</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="363">
   <si>
     <t>DATE DE NAISSANCE</t>
   </si>
@@ -74,6 +69,9 @@
     <t>Docteur LARCHER Yann</t>
   </si>
   <si>
+    <t>NOM COMPLET</t>
+  </si>
+  <si>
     <t>PAULET Zakia Thérèse</t>
   </si>
   <si>
@@ -275,6 +273,9 @@
     <t>Optical Discount</t>
   </si>
   <si>
+    <t>572624138</t>
+  </si>
+  <si>
     <t>924140205 </t>
   </si>
   <si>
@@ -284,67 +285,85 @@
     <t>RIDA Mourad</t>
   </si>
   <si>
-    <t>NOM Complet</t>
+    <t>692681117</t>
+  </si>
+  <si>
+    <t>LES OPTICIENS LYONNAIS SARL</t>
+  </si>
+  <si>
+    <t>750060337</t>
+  </si>
+  <si>
+    <t>KESSOUS DAVID</t>
+  </si>
+  <si>
+    <t>CENTRE DENTAIRE DR ADLER RUBEN</t>
+  </si>
+  <si>
+    <t>MORABIT Naima</t>
+  </si>
+  <si>
+    <t>TALIBI Salim</t>
+  </si>
+  <si>
+    <t>EGLER Marie Yvonne</t>
+  </si>
+  <si>
+    <t>FONDON PARRA David</t>
   </si>
   <si>
     <t>PELONDE Steeve</t>
   </si>
   <si>
+    <t>NIZART Médit</t>
+  </si>
+  <si>
     <t>BRESSON Nicole</t>
   </si>
   <si>
     <t>MARQUART Alexandre</t>
   </si>
   <si>
-    <t>MORABIT Naima</t>
-  </si>
-  <si>
-    <t>TALIBI Salim</t>
-  </si>
-  <si>
-    <t>EGLER Marie Yvonne</t>
-  </si>
-  <si>
-    <t>750060337</t>
-  </si>
-  <si>
-    <t>KESSOUS DAVID</t>
-  </si>
-  <si>
-    <t>CENTRE DENTAIRE DR ADLER RUBEN</t>
-  </si>
-  <si>
-    <t>LES OPTICIENS LYONNAIS SARL</t>
-  </si>
-  <si>
-    <t>FONDON PARRA David</t>
-  </si>
-  <si>
-    <t>NIZART Médit</t>
-  </si>
-  <si>
     <t>LES OPTICIENS A DOMICILE</t>
   </si>
   <si>
+    <t>751418526</t>
+  </si>
+  <si>
+    <t>Docteur BOKOBZA Yves</t>
+  </si>
+  <si>
     <t>KHALLOUFI Yassin</t>
   </si>
   <si>
     <t>AUPY CHOLLET Julien</t>
   </si>
   <si>
-    <t>751418526</t>
-  </si>
-  <si>
     <t>752619890</t>
   </si>
   <si>
-    <t>Docteur BOKOBZA Yves</t>
-  </si>
-  <si>
     <t>ATELIER LOU OPTIQUE</t>
   </si>
   <si>
-    <t xml:space="preserve"> COQUART Christine</t>
+    <t>132604844</t>
+  </si>
+  <si>
+    <t>OPTICA</t>
+  </si>
+  <si>
+    <t>754709954</t>
+  </si>
+  <si>
+    <t>Dr Cohen Avi</t>
+  </si>
+  <si>
+    <t>340780253</t>
+  </si>
+  <si>
+    <t>LE COLOMBIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> COQUARTChristine</t>
   </si>
   <si>
     <t>DAUMAS Ryan</t>
@@ -353,55 +372,43 @@
     <t>MORAIS Raphael</t>
   </si>
   <si>
+    <t>LEMIERE ET LAURENT OPTICIEN</t>
+  </si>
+  <si>
+    <t>082611062 </t>
+  </si>
+  <si>
+    <t>CERCLE AUDITION</t>
+  </si>
+  <si>
+    <t>CLINIQUE LA MAISON FLEURIE</t>
+  </si>
+  <si>
+    <t>590780235</t>
+  </si>
+  <si>
     <t>BERNARD Jean-Luc</t>
   </si>
   <si>
+    <t>082611062</t>
+  </si>
+  <si>
+    <t>844007609 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dr Frédéric DEFLINE</t>
+  </si>
+  <si>
     <t>SPAGNOL  Sabine</t>
   </si>
   <si>
-    <t>590780235</t>
-  </si>
-  <si>
-    <t>082611062</t>
-  </si>
-  <si>
-    <t>844007609 </t>
-  </si>
-  <si>
-    <t>BOYLAMBA Edmond</t>
-  </si>
-  <si>
-    <t>LE COLOMBIER</t>
-  </si>
-  <si>
-    <t>LEMIERE ET LAURENT OPTICIEN</t>
-  </si>
-  <si>
-    <t>CERCLE AUDITION</t>
-  </si>
-  <si>
-    <t>CLINIQUE LA MAISON FLEURIE</t>
-  </si>
-  <si>
-    <t>Coffre à Lunette</t>
-  </si>
-  <si>
-    <t>VU BY</t>
-  </si>
-  <si>
-    <t>132604844</t>
-  </si>
-  <si>
-    <t>OPTICA</t>
-  </si>
-  <si>
-    <t>754709954</t>
-  </si>
-  <si>
-    <t>Dr Cohen Avi</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Dr Frédéric DEFLINE</t>
+    <t xml:space="preserve">BOYLAMBA Edmond </t>
+  </si>
+  <si>
+    <t>COHEN Laeticia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dr AMAR serge </t>
   </si>
   <si>
     <t>752619668</t>
@@ -413,48 +420,45 @@
     <t> BONNET Jean-Marie.</t>
   </si>
   <si>
+    <t>Docteur Brigitte DAHAN</t>
+  </si>
+  <si>
     <t>920018058</t>
   </si>
   <si>
-    <t>Docteur Brigitte DAHAN</t>
-  </si>
-  <si>
     <t>450000088</t>
   </si>
   <si>
     <t>CHR ORLEANS</t>
   </si>
   <si>
-    <t>Dr AMAR serge</t>
-  </si>
-  <si>
-    <t>AJAOUN Faicel</t>
-  </si>
-  <si>
-    <t>OPHTALYA ENGHIEN</t>
-  </si>
-  <si>
     <t>750061970</t>
   </si>
   <si>
     <t>CENTRE DENTAIRE ADENT</t>
   </si>
   <si>
+    <t>PHARMACIE DES ECOLES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AJAOUN faicel </t>
+  </si>
+  <si>
     <t>954042677</t>
   </si>
   <si>
     <t>Dr Behdad FAZAIEE</t>
   </si>
   <si>
+    <t>OPHTALYA ENGHIEN </t>
+  </si>
+  <si>
+    <t>EURL MR OPTIC</t>
+  </si>
+  <si>
     <t>DIOP Babacar</t>
   </si>
   <si>
-    <t>EURL MR OPTIC</t>
-  </si>
-  <si>
-    <t>PHARMACIE DES ECOLES</t>
-  </si>
-  <si>
     <t>514010214</t>
   </si>
   <si>
@@ -464,6 +468,9 @@
     <t>750067530 </t>
   </si>
   <si>
+    <t xml:space="preserve">DR M FRANCK LEVY </t>
+  </si>
+  <si>
     <t>INOUIE AUDITION</t>
   </si>
   <si>
@@ -476,28 +483,121 @@
     <t>CDS DENTAIRE LA GALATHEE</t>
   </si>
   <si>
-    <t>DR M FRANCK LEVY</t>
+    <t>751629049</t>
+  </si>
+  <si>
+    <t>Dr PRISANT Olivier</t>
+  </si>
+  <si>
+    <t>VU BY OPTICIEN D'EXCEPTION</t>
+  </si>
+  <si>
+    <t>LE COFFRE A LUNETTE</t>
+  </si>
+  <si>
+    <t>CSD BEAU SEVRAN</t>
+  </si>
+  <si>
+    <t>750100125</t>
+  </si>
+  <si>
+    <t>CH PITIE-SALPETRIERE</t>
+  </si>
+  <si>
+    <t>954037412</t>
+  </si>
+  <si>
+    <t>DR LEDES MARTINES Isabelle</t>
+  </si>
+  <si>
+    <t>014008957</t>
+  </si>
+  <si>
+    <t>Dr BERTOLINO Xavier</t>
+  </si>
+  <si>
+    <t>HARMI Abou</t>
   </si>
   <si>
     <t>MIMOUNI Laetita</t>
   </si>
   <si>
-    <t>HARMI Abou</t>
-  </si>
-  <si>
     <t>ARGENTON Tristan</t>
   </si>
   <si>
     <t>VERGE David</t>
   </si>
   <si>
-    <t>COHEN Laeticia</t>
+    <t>670018746</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DR SEBBAG ET DR HAIK</t>
+  </si>
+  <si>
+    <t>MAULBECKER Alain</t>
+  </si>
+  <si>
+    <t>Centre Hélio Marin</t>
+  </si>
+  <si>
+    <t>AUDIOTION GONCOUR</t>
+  </si>
+  <si>
+    <t>Clinique du CROISE LAROCHE</t>
+  </si>
+  <si>
+    <t>SCHOEPPERLE LIGNEY MAGALI</t>
+  </si>
+  <si>
+    <t>MME BOUTILLIER FRANCOISE</t>
+  </si>
+  <si>
+    <t>LABORATOIRE ORIADE</t>
+  </si>
+  <si>
+    <t>026103812</t>
+  </si>
+  <si>
+    <t>MR BOYER JEAN CHRISTOPHE</t>
+  </si>
+  <si>
+    <t>066026444</t>
+  </si>
+  <si>
+    <t>BOUSSELLAOUI  MAGDA</t>
+  </si>
+  <si>
+    <t>HUGEAT NADIA</t>
   </si>
   <si>
     <t>060789674</t>
   </si>
   <si>
-    <t>MAULBECKER Alain</t>
+    <t>CLINIQUE OCEANE SE</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 066896994</t>
+  </si>
+  <si>
+    <t>066124298</t>
+  </si>
+  <si>
+    <t>CENTRE DE SOINS ADMR</t>
+  </si>
+  <si>
+    <t>TOUATI HASSINA</t>
+  </si>
+  <si>
+    <t>CSI DAMPIERRE</t>
+  </si>
+  <si>
+    <t>BLEZARD PIOU ALINE</t>
+  </si>
+  <si>
+    <t>ESTELLE REMOND</t>
+  </si>
+  <si>
+    <t>CARRIER DAMIEN</t>
   </si>
   <si>
     <t>AESCHELMAN Jean Paul</t>
@@ -563,38 +663,485 @@
     <t>CHEMLALI Mabrouka</t>
   </si>
   <si>
-    <t>026103812</t>
-  </si>
-  <si>
-    <t>066026444</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 066896994</t>
-  </si>
-  <si>
-    <t>066124298</t>
-  </si>
-  <si>
     <t>754158301 </t>
   </si>
   <si>
-    <t>NAMANE Sofiane</t>
-  </si>
-  <si>
-    <t>MARTINEZ Victoria</t>
+    <t>DR ALTGLAS Vincent </t>
+  </si>
+  <si>
+    <t>Dr Paul COHEN</t>
+  </si>
+  <si>
+    <t>VERMOT OLIVIER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NAMANE Sofiane </t>
+  </si>
+  <si>
+    <t>Polyclinique LE VAL DE LYS</t>
+  </si>
+  <si>
+    <t>POLYCLINIQUE AGUILERA</t>
+  </si>
+  <si>
+    <t>Centre de Dentaire Mutualiste</t>
+  </si>
+  <si>
+    <t>DR COLETTIS ANTOINE</t>
+  </si>
+  <si>
+    <t>CDS CODEM</t>
+  </si>
+  <si>
+    <t>DR AZODANLOO Shahram</t>
+  </si>
+  <si>
+    <t>HOPITAL LES PEUPLIERS</t>
+  </si>
+  <si>
+    <t>MARTINEZ Victoria</t>
+  </si>
+  <si>
+    <t>Dr Lilya SAID</t>
+  </si>
+  <si>
+    <t>L AUDISENS</t>
   </si>
   <si>
     <t>LOUIVIS David</t>
   </si>
   <si>
     <t>CHEDED Nacima</t>
+  </si>
+  <si>
+    <t>FIRST OPTIC AVRON</t>
+  </si>
+  <si>
+    <t>NOGBOU Kraidi</t>
+  </si>
+  <si>
+    <t>KASPEREK Pierre</t>
+  </si>
+  <si>
+    <t>MARY Monique</t>
+  </si>
+  <si>
+    <t>ROCA Sandrine</t>
+  </si>
+  <si>
+    <t>CURZI josiane</t>
+  </si>
+  <si>
+    <t>950046151</t>
+  </si>
+  <si>
+    <t>Dr ASSOUS Raphael </t>
+  </si>
+  <si>
+    <t>DR GATINEL DAMIEN</t>
+  </si>
+  <si>
+    <t>DOGAN Hasan</t>
+  </si>
+  <si>
+    <t>HADADD Isabelle</t>
+  </si>
+  <si>
+    <t>KRIKAVA Claude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA FONTE Maria </t>
+  </si>
+  <si>
+    <t>HADDJERI Sandra</t>
+  </si>
+  <si>
+    <t>SOLTANI Fatima</t>
+  </si>
+  <si>
+    <t>214009458 </t>
+  </si>
+  <si>
+    <t>Dr Mohamed BEKKAOUI</t>
+  </si>
+  <si>
+    <t>134045277 </t>
+  </si>
+  <si>
+    <t>DR BEAUCOURT LUC</t>
+  </si>
+  <si>
+    <t>CDS POLYVALENT DE L AEROPORT</t>
+  </si>
+  <si>
+    <t>SUBLIM DENT</t>
+  </si>
+  <si>
+    <t>CDS OPHTALMOLOGIQUE</t>
+  </si>
+  <si>
+    <t>CSD PORTE ORLEANS DENTEGO</t>
+  </si>
+  <si>
+    <t>OPTIC 2000</t>
+  </si>
+  <si>
+    <t>750057689</t>
+  </si>
+  <si>
+    <t>Dr ABEHASSERA Fernand</t>
+  </si>
+  <si>
+    <t>591770714</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OPTIQUE CHAUVEAU /OPTIQUE VANISCOTTE </t>
+  </si>
+  <si>
+    <t>772602033</t>
+  </si>
+  <si>
+    <t>AMMARI Mounira</t>
+  </si>
+  <si>
+    <t>Mme GOETHALS Lucie RADIOLOGIE VILLENEUVE D ASCQ</t>
+  </si>
+  <si>
+    <t>FANTIN Mylene</t>
+  </si>
+  <si>
+    <t>MORAT Patricia</t>
+  </si>
+  <si>
+    <t>DR GUEDJ Manuel</t>
+  </si>
+  <si>
+    <t>752632661 </t>
+  </si>
+  <si>
+    <t>FALGUIERE OPTIC</t>
+  </si>
+  <si>
+    <t>S&amp;D OPTICAL CONCEPT / LUNETTES FACTORY</t>
+  </si>
+  <si>
+    <t>OSSWALD Cyrille</t>
+  </si>
+  <si>
+    <t>CENTRE COSEM MARSEILLE</t>
+  </si>
+  <si>
+    <t>CHNO DES QUINZE-VINGTS</t>
+  </si>
+  <si>
+    <t>OPTIQUE ELVIS</t>
+  </si>
+  <si>
+    <t>PATHAMMAVONG ARYA</t>
+  </si>
+  <si>
+    <t>DR BOUCHER RODOLPHE</t>
+  </si>
+  <si>
+    <t>STERNJAKOB Agnès</t>
+  </si>
+  <si>
+    <t>AUDITION 18</t>
+  </si>
+  <si>
+    <t>AUDISOIN</t>
+  </si>
+  <si>
+    <t>OPTICAL SERVICE</t>
+  </si>
+  <si>
+    <t>BELRHOUCHE Yasmin</t>
+  </si>
+  <si>
+    <t>ERDEN Océan</t>
+  </si>
+  <si>
+    <t>ATZENI  Antoine</t>
+  </si>
+  <si>
+    <t>NON TROUVES SUR MWM</t>
+  </si>
+  <si>
+    <t>CRISTOFARO Gilles</t>
+  </si>
+  <si>
+    <t>HADDAOUI Najat</t>
+  </si>
+  <si>
+    <t>CARLOTA OPTIC / FANOPTIC EURL</t>
+  </si>
+  <si>
+    <t>170024194 </t>
+  </si>
+  <si>
+    <t>CH DE LA ROCHELLE</t>
+  </si>
+  <si>
+    <t>TAVARES Patrick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RODIER Sebastien </t>
+  </si>
+  <si>
+    <t>CLINIQUE DE L ORANGERIE</t>
+  </si>
+  <si>
+    <t>Dr AMBRY Danielle</t>
+  </si>
+  <si>
+    <t>130783327 </t>
+  </si>
+  <si>
+    <t>CLINIQUE BOUCHARD</t>
+  </si>
+  <si>
+    <t>SCOTH Nathalie</t>
+  </si>
+  <si>
+    <t>JENSEN (MAILFERT) Clémence</t>
+  </si>
+  <si>
+    <t>526000138 </t>
+  </si>
+  <si>
+    <t>TUPIN Eléonore</t>
+  </si>
+  <si>
+    <t>OPTIMA/POINT2VUE</t>
+  </si>
+  <si>
+    <t>932659741 </t>
+  </si>
+  <si>
+    <t>FRANCK OPTIQUE</t>
+  </si>
+  <si>
+    <t>684010754 </t>
+  </si>
+  <si>
+    <t>Dr CLAUSER Gérard</t>
+  </si>
+  <si>
+    <t>Dr Joseph BURSZTYN</t>
+  </si>
+  <si>
+    <t>OPTIQUE DE CHAMPIGNY</t>
+  </si>
+  <si>
+    <t>L'OPTICAFE</t>
+  </si>
+  <si>
+    <t>922614250</t>
+  </si>
+  <si>
+    <t>OPTICIEN KRYS</t>
+  </si>
+  <si>
+    <t>JENDOUBI Rayane Mohamed</t>
+  </si>
+  <si>
+    <t>DR ATTLAN Patrice( DECEDE 2023)</t>
+  </si>
+  <si>
+    <t>GHSO SELESTAT OBERNAI</t>
+  </si>
+  <si>
+    <t>OPTIC DNS</t>
+  </si>
+  <si>
+    <t>VISION D AVENIR</t>
+  </si>
+  <si>
+    <t>ADJED MOURAD</t>
+  </si>
+  <si>
+    <t>KLOPP Vivien</t>
+  </si>
+  <si>
+    <t>LA LUNETTERIE</t>
+  </si>
+  <si>
+    <t>DR DAN ROSENBACH </t>
+  </si>
+  <si>
+    <t>944167006</t>
+  </si>
+  <si>
+    <t>952668838 </t>
+  </si>
+  <si>
+    <t>LE CORNER DE L AUDITION</t>
+  </si>
+  <si>
+    <t>062600994</t>
+  </si>
+  <si>
+    <t>LOOK OPTIC,</t>
+  </si>
+  <si>
+    <t>752604389</t>
+  </si>
+  <si>
+    <t>RON OPTIQUE - OPTICAL DISCOUNT</t>
+  </si>
+  <si>
+    <t>752635177</t>
+  </si>
+  <si>
+    <t>CJT CONCEPT-HORS PAIR</t>
+  </si>
+  <si>
+    <t>132669169</t>
+  </si>
+  <si>
+    <t>ALL EYEZ ON ME</t>
+  </si>
+  <si>
+    <t>952667467</t>
+  </si>
+  <si>
+    <t>OPTIC DE LA GARE-ES OPTIQUE</t>
+  </si>
+  <si>
+    <t>A&amp;F OPTIC</t>
+  </si>
+  <si>
+    <t>OPTIC 86</t>
+  </si>
+  <si>
+    <t>VIVIENNE OPTIQUE</t>
+  </si>
+  <si>
+    <t>OPTICAL BRIAND-OPTICAL BRAND</t>
+  </si>
+  <si>
+    <t>SAN EPSAN BRUMATH</t>
+  </si>
+  <si>
+    <t>DR GOMRI YOUSSEF</t>
+  </si>
+  <si>
+    <t>VBG OPTIQUE - OPTIC 2000</t>
+  </si>
+  <si>
+    <t>SARL OZB-OPTIC 2000</t>
+  </si>
+  <si>
+    <t>FONDATION SANTE SERVICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EL FAYAD Beatrice </t>
+  </si>
+  <si>
+    <t>Dr FRUGIER Vincent</t>
+  </si>
+  <si>
+    <t>IFRAH Ghenima</t>
+  </si>
+  <si>
+    <t>OPTICAL EUROPE</t>
+  </si>
+  <si>
+    <t>BRIGHT 10 OPTIC</t>
+  </si>
+  <si>
+    <t>754177863 </t>
+  </si>
+  <si>
+    <t>DR ARI ELHYANI</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DR PEYRE CATHERINE</t>
+  </si>
+  <si>
+    <t>TOMASIK OLGA</t>
+  </si>
+  <si>
+    <t>GUILLAUME ROMAIN</t>
+  </si>
+  <si>
+    <t>ARRIAGA Karine</t>
+  </si>
+  <si>
+    <t>BONNAVENTURE Aurelien</t>
+  </si>
+  <si>
+    <t>NOUGUE LASSERE</t>
+  </si>
+  <si>
+    <t>JAD AKL</t>
+  </si>
+  <si>
+    <t>ALINE CALLEBERT</t>
+  </si>
+  <si>
+    <t>130783293</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pr PADOVANI Laetitia CHU Timone à Marseille </t>
+  </si>
+  <si>
+    <t xml:space="preserve">800006124 </t>
+  </si>
+  <si>
+    <t>CHU AMIENS-PICARDIE</t>
+  </si>
+  <si>
+    <t>CENTRE DU CHATEAU</t>
+  </si>
+  <si>
+    <t>PHARMACIE DE L'EUROPE</t>
+  </si>
+  <si>
+    <t>PANAMOPTIC ELYSEE</t>
+  </si>
+  <si>
+    <t>OPTICAL STORE</t>
+  </si>
+  <si>
+    <t>COLANDAVALOO Vinvent-Guillaume</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CENTRE MEDICAL DE SANTE OPHTALMED </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DR PINARD</t>
+    </r>
+  </si>
+  <si>
+    <t>Optic SAM MATARE OPTIC</t>
+  </si>
+  <si>
+    <t>SONESIS AUDIO SARL DOMAUDIO</t>
+  </si>
+  <si>
+    <t>DR AMSALLEM JESSICA CENTRE DENTAIRE DE CRETEIL</t>
+  </si>
+  <si>
+    <t>930026968</t>
+  </si>
+  <si>
+    <t>CSD PANTIN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,13 +1160,48 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF4C4F57"/>
+      <name val="Questrial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF424242"/>
+      <name val="Questrial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -649,11 +1231,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -664,12 +1247,26 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -983,703 +1580,1038 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBCC48CC-75DA-420D-A524-73F8240BD09D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr codeName="Feuil1"/>
-  <dimension ref="A1:B83"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="D1" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F1" s="14"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3">
         <v>25797</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3">
         <v>35529</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="3">
         <v>27419</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3">
         <v>21095</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
         <v>31760</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="3">
         <v>30147</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="3">
         <v>35005</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="3">
         <v>23500</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3">
         <v>30888</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B11" s="2">
+      <c r="D10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3">
         <v>32609</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12" s="2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3">
         <v>27280</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3">
         <v>27752</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3">
         <v>22125</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="2">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3">
         <v>33816</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B16" s="2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3">
         <v>24028</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="2">
+      <c r="A17" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3">
         <v>35125</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="2">
+      <c r="A18" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3">
         <v>30937</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" s="2">
+      <c r="A19" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3">
         <v>25643</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="2">
+      <c r="A20" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3">
         <v>30662</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="2">
+      <c r="A21" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3">
         <v>35872</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3">
+        <v>19134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3">
+        <v>25585</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3">
+        <v>28897</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3">
+        <v>21875</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3">
+        <v>35972</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3">
+        <v>22787</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3">
+        <v>29053</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3">
+        <v>26839</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3">
+        <v>33614</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3">
+        <v>30517</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B32" s="3">
+        <v>31351</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="3">
+        <v>26210</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="B34" s="3">
+        <v>32216</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B35" s="3">
+        <v>30490</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="3">
+        <v>28748</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="3">
+        <v>20815</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="3">
+        <v>32503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" s="3">
+        <v>20123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="3">
+        <v>31003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="3">
+        <v>29722</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B42" s="3">
+        <v>31224</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="3">
+        <v>25020</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="3">
+        <v>38095</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="3">
+        <v>38106</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="3">
+        <v>22176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="3">
+        <v>31854</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B48" s="3">
+        <v>33454</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="3">
+        <v>27348</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B50" s="3">
+        <v>29774</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" s="3">
+        <v>33709</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="15" t="s">
+        <v>161</v>
+      </c>
+      <c r="B52" s="3">
+        <v>28871</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="3">
+        <v>35025</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="B54" s="3">
+        <v>37516</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B55" s="3">
+        <v>36651</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="15" t="s">
+        <v>166</v>
+      </c>
+      <c r="B56" s="3">
+        <v>17957</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="15" t="s">
+        <v>188</v>
+      </c>
+      <c r="B57" s="3">
+        <v>19590</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="B58" s="3">
+        <v>24735</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="B59" s="3">
+        <v>23632</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="B60" s="3">
+        <v>21245</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="15" t="s">
+        <v>192</v>
+      </c>
+      <c r="B61" s="3">
+        <v>25812</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="B62" s="3">
+        <v>31867</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B63" s="3">
+        <v>23345</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="B64" s="3">
+        <v>31188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="B65" s="3">
+        <v>35365</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B66" s="3">
+        <v>32310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="B67" s="3">
+        <v>25864</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="B68" s="3">
+        <v>28729</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="3">
+        <v>21906</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B70" s="3">
+        <v>15220</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="B71" s="3">
+        <v>14635</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" s="3">
+        <v>34396</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B73" s="3">
+        <v>22053</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="B74" s="3">
+        <v>29783</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="15" t="s">
+        <v>206</v>
+      </c>
+      <c r="B75" s="3">
+        <v>24915</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="B76" s="3">
+        <v>17256</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B77" s="3">
+        <v>32683</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="B78" s="3">
+        <v>32515</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B79" s="3">
+        <v>36651</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" s="3">
+        <v>35005</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="B81" s="3">
+        <v>37665</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="B82" s="3">
+        <v>35841</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="15" t="s">
+        <v>225</v>
+      </c>
+      <c r="B83" s="3">
+        <v>26467</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="15" t="s">
+        <v>227</v>
+      </c>
+      <c r="B84" s="3">
+        <v>24805</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B85" s="3">
+        <v>20987</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="B86" s="3">
+        <v>21883</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="15" t="s">
+        <v>275</v>
+      </c>
+      <c r="B87" s="3">
+        <v>19221</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="B88" s="3">
+        <v>26116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" s="3">
+        <v>19442</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90" s="3">
+        <v>43805</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B91" s="3">
+        <v>19480</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="15" t="s">
+        <v>237</v>
+      </c>
+      <c r="B92" s="3">
+        <v>22809</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B93" s="3">
+        <v>18528</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="B94" s="3">
+        <v>30665</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="B95" s="3">
+        <v>24908</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B96" s="3">
+        <v>31133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="B97" s="3">
+        <v>20054</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B98" s="3">
+        <v>23730</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="15" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99" s="3">
+        <v>23117</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="B100" s="3">
+        <v>35729</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B101" s="3">
+        <v>21141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B102" s="3">
+        <v>22940</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B103" s="3">
+        <v>20059</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B104" s="3">
+        <v>30049</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B105" s="3">
+        <v>31591</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B106" s="3">
+        <v>30273</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B107" s="3">
+        <v>25059</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B108" s="3">
+        <v>33259</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B109" s="3">
+        <v>28068</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B22" s="2">
-        <v>19134</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="2">
-        <v>25585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="2">
-        <v>28897</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="2">
-        <v>21875</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="2">
-        <v>35972</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="2">
-        <v>22787</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="2">
-        <v>29053</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B29" s="2">
-        <v>26839</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="2">
-        <v>33614</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B31" s="2">
-        <v>30517</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" s="2">
-        <v>31351</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="2">
-        <v>26210</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B34" s="2">
-        <v>32216</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B35" s="2">
-        <v>31351</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B36" s="2">
-        <v>26210</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="2">
-        <v>32216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B38" s="2">
-        <v>32503</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39" s="2">
-        <v>20123</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B40" s="2">
-        <v>31003</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B41" s="2">
-        <v>29722</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B42" s="2">
-        <v>31224</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B43" s="2">
-        <v>25020</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B44" s="2">
-        <v>38095</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B45" s="2">
-        <v>38106</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="2">
-        <v>22176</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="2">
-        <v>31854</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B48" s="2">
-        <v>33454</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B49" s="2">
-        <v>27348</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B50" s="2">
-        <v>29774</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="B51" s="2">
-        <v>33709</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B52" s="2">
-        <v>28871</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B53" s="2">
-        <v>35025</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B54" s="2">
-        <v>37516</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B55" s="2">
-        <v>36651</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B56" s="2">
-        <v>17957</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="B57" s="2">
-        <v>19590</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B58" s="2">
-        <v>24735</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="B59" s="2">
-        <v>23632</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="B60" s="2">
-        <v>21245</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B61" s="2">
-        <v>25812</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="2">
-        <v>31867</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B63" s="2">
-        <v>23345</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="2">
-        <v>31188</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B65" s="2">
-        <v>35365</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B66" s="2">
-        <v>32310</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" s="2">
-        <v>25864</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="B68" s="2">
-        <v>28729</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B69" s="2">
-        <v>21906</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="B70" s="2">
-        <v>15220</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B71" s="2">
-        <v>14635</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="B72" s="2">
-        <v>34396</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="B73" s="2">
-        <v>22053</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B74" s="2">
-        <v>29783</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="B75" s="2">
-        <v>24915</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B76" s="2">
-        <v>17256</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="B77" s="2">
-        <v>32683</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78" s="2">
-        <v>32515</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B79" s="2">
-        <v>36651</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B80" s="2">
-        <v>35005</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="B81" s="2">
-        <v>37665</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="B82" s="2">
-        <v>35841</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B83" s="2">
-        <v>26467</v>
-      </c>
+      <c r="B110" s="3">
+        <v>35872</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B111" s="3">
+        <v>27461</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="12" t="s">
+        <v>333</v>
+      </c>
+      <c r="B112" s="3">
+        <v>32198</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" s="3">
+        <v>19885</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B114" s="3">
+        <v>19024</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B115" s="3">
+        <v>29895</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B116" s="3">
+        <v>26801</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B117" s="3">
+        <v>30744</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B118" s="3">
+        <v>35895</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B119" s="3">
+        <v>38212</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B120" s="3">
+        <v>35131</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="12" t="s">
+        <v>356</v>
+      </c>
+      <c r="B121" s="3">
+        <v>33816</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="B122" s="3"/>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="B123" s="3"/>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2"/>
+      <c r="B124" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B77" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr codeName="Feuil2"/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B112"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" customWidth="1"/>
-    <col min="2" max="2" width="42.140625" customWidth="1"/>
+    <col min="2" max="2" width="56.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -1703,7 +2635,7 @@
         <v>380000034</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1711,15 +2643,15 @@
         <v>751396607</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>751721473</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1727,7 +2659,7 @@
         <v>574920104</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1735,7 +2667,7 @@
         <v>574014676</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1743,7 +2675,7 @@
         <v>924701824</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1751,7 +2683,7 @@
         <v>922619796</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1759,7 +2691,7 @@
         <v>752608208</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1767,7 +2699,7 @@
         <v>132660614</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1775,7 +2707,7 @@
         <v>132655978</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1783,7 +2715,7 @@
         <v>752617829</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1791,7 +2723,7 @@
         <v>752615518</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1799,7 +2731,7 @@
         <v>132651761</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1807,7 +2739,7 @@
         <v>932656259</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1815,7 +2747,7 @@
         <v>930029145</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1823,7 +2755,7 @@
         <v>752608497</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1831,7 +2763,7 @@
         <v>572624138</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1839,7 +2771,7 @@
         <v>692681117</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1847,7 +2779,7 @@
         <v>714002367</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1863,7 +2795,7 @@
         <v>542667381</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1871,7 +2803,7 @@
         <v>340780253</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1879,15 +2811,15 @@
         <v>502600273</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
-        <v>107</v>
+      <c r="A26" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1895,7 +2827,7 @@
         <v>590780235</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1903,23 +2835,23 @@
         <v>622699312</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>572012847</v>
+        <v>672666369</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>672666369</v>
+        <v>572012847</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -1927,7 +2859,7 @@
         <v>950044651</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1935,28 +2867,648 @@
         <v>942614504</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>136</v>
-      </c>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>560008799</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>752634485</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>590781951</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>706306677</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>706316569</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>383710407</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>706323441</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>700780620</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>696708148</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>336703798</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>181</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>700780448</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>754704286</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>254710312</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>590817839</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>640780490</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>930026240</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>752633792</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>752610352</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>751667296</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>130044704</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>950044941</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>682675210</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>772602033</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>134040658</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>592693022</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>130051642</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>312623549</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>494700602</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>442601597</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>912607389</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>752617779</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>752613562</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>670780170</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>312624232</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>751333246</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>942612086</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>272696774</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>670017755</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>722604808</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>752619445</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>546282336</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>542666623</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
+        <v>782666390</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="11">
+        <v>692682321</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="11">
+        <v>942615295</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="11">
+        <v>752600353</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="11">
+        <v>922619275</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="11">
+        <v>670000058</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="11">
+        <v>750068165</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>132663253</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>752613166</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>772603221</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>752619320</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>752630194</v>
+      </c>
+      <c r="B102" s="11" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>750067456</v>
+      </c>
+      <c r="B103" s="11" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>782714448</v>
+      </c>
+      <c r="B104" s="11" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="1">
+        <v>752635326</v>
+      </c>
+      <c r="B105" s="11" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="1">
+        <v>930030531</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>912607462</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="B108" s="11"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="B109" s="11"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="B110" s="11"/>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="B111" s="11"/>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="2"/>
+      <c r="B112" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:B1" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Feuil3"/>
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -2028,7 +3580,7 @@
         <v>340015965</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2036,7 +3588,7 @@
         <v>694021023</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2044,7 +3596,7 @@
         <v>924701998</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2052,7 +3604,7 @@
         <v>784046153</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2060,7 +3612,7 @@
         <v>934173907</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2068,7 +3620,7 @@
         <v>782666770</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2076,7 +3628,7 @@
         <v>770790707</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2084,250 +3636,547 @@
         <v>340782275</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>67</v>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
         <v>134021054</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
         <v>950045138</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>72</v>
+      </c>
       <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
-        <v>76</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
         <v>78</v>
       </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>80</v>
+      </c>
       <c r="B24" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>88</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>85</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="5">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
         <v>750064164</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C27" s="6"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
         <v>98</v>
       </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
+        <v>101</v>
+      </c>
       <c r="B28" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C28" s="6"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>116</v>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C29" s="6"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
-        <v>118</v>
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>105</v>
       </c>
       <c r="B30" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
         <v>119</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
         <v>694802885</v>
       </c>
       <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <v>144005030</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>144005030</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="5" t="s">
-        <v>126</v>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
         <v>131</v>
       </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="6" t="s">
+        <v>132</v>
+      </c>
       <c r="B37" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
         <v>133</v>
       </c>
+    </row>
+    <row r="38" spans="1:4" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="B38" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
+      </c>
+      <c r="D38" s="9"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>143</v>
       </c>
       <c r="B40" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="6">
+        <v>932659881</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>932659881</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="6">
         <v>754186575</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="6" t="s">
+        <v>147</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>144</v>
-      </c>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="6">
+        <v>930026240</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="6">
+        <v>650785850</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="6">
+        <v>590060117</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C52" s="8"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="6">
+        <v>930029020</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C53" s="8"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="6">
+        <v>914044565</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C54" s="8"/>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="6">
+        <v>750300360</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="6">
+        <v>944004894</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="6">
+        <v>260022389</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="6">
+        <v>921074639</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="6">
+        <v>750110025</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="6">
+        <v>784041345</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="6">
+        <v>814004222</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="6">
+        <v>694038936</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="6">
+        <v>920813623</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="6">
+        <v>244001517</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="6">
+        <v>751720673</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="6">
+        <v>742602436</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="6">
+        <v>940024359</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D1" xr:uid="{00000000-0001-0000-0200-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Feuil4"/>
-  <dimension ref="A1:A95"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93:A95"/>
+    <sheetView tabSelected="1" topLeftCell="A153" workbookViewId="0">
+      <selection activeCell="A167" sqref="A167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2397,112 +4246,113 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>751721473</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>784046153</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>574920104</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>574014676</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>924701824</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>934173907</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>752608497</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>782666770</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>770790707</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>340782275</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>384001681</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
         <v>134021054</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="5">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="6">
         <v>950045138</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>530000264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="6" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="6">
         <v>490000049</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>572624138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>752614396</v>
+      <c r="C30" s="6"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>924140205</v>
+      <c r="A33" s="6" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>692681117</v>
+      <c r="A34" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>750060337</v>
+      <c r="A35" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="5">
+      <c r="A36" s="6">
         <v>750064164</v>
       </c>
     </row>
@@ -2522,28 +4372,28 @@
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>751418526</v>
+      <c r="A40" s="6" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>752619890</v>
+      <c r="A41" s="6" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>132604844</v>
+      <c r="A42" s="6" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>754709954</v>
+      <c r="A43" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
-        <v>340780253</v>
+      <c r="A44" s="6" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
@@ -2552,32 +4402,32 @@
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>106</v>
+      <c r="A46" s="6" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="5" t="s">
-        <v>107</v>
+      <c r="A47" s="6" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
-        <v>844007609</v>
+      <c r="A48" s="6" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+      <c r="A49" s="6">
         <v>694802885</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
-        <v>752619668</v>
+      <c r="A50" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+      <c r="A51" s="6">
         <v>144005030</v>
       </c>
     </row>
@@ -2597,13 +4447,13 @@
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
-        <v>450000088</v>
+      <c r="A55" s="6" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
-        <v>750061970</v>
+      <c r="A56" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -2612,8 +4462,8 @@
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
-        <v>954042677</v>
+      <c r="A58" s="6" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
@@ -2627,43 +4477,43 @@
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+      <c r="A61" s="6">
         <v>754186575</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+      <c r="A62" s="6">
         <v>950045047</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>751629049</v>
+      <c r="A63" s="6" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+      <c r="A64" s="6">
         <v>930026240</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" s="5">
+      <c r="A65" s="6">
         <v>750100125</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" s="5">
+      <c r="A66" s="6">
         <v>560008799</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>670018746</v>
+      <c r="A67" s="6" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" s="5" t="s">
-        <v>151</v>
+      <c r="A68" s="6" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -2693,7 +4543,7 @@
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
@@ -2707,8 +4557,8 @@
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A77" s="5" t="s">
-        <v>176</v>
+      <c r="A77" s="6" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
@@ -2726,80 +4576,476 @@
         <v>336703798</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="6" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>700780448</v>
       </c>
     </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>754704286</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>254710312</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>590817839</v>
       </c>
     </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>640780490</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="6">
         <v>650785850</v>
       </c>
     </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A89" s="5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="6">
         <v>590060117</v>
       </c>
     </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="6">
         <v>930029020</v>
       </c>
     </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A91" s="5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="6">
         <v>914044565</v>
       </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A92" s="5">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="6">
         <v>750300360</v>
       </c>
     </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>930026240</v>
       </c>
     </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="6">
         <v>944004894</v>
       </c>
     </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>752633792</v>
       </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="6" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>130044704</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="6">
+        <v>260022389</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" s="1">
+        <v>950044941</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" s="1">
+        <v>750057689</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1">
+        <v>682675210</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="6">
+        <v>921074639</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="6" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="6" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>134040658</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>592693022</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" s="1">
+        <v>130051642</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" s="6">
+        <v>750110025</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" s="1">
+        <v>312623549</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" s="6">
+        <v>784041345</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" s="1">
+        <v>494700602</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" s="1">
+        <v>442601597</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" s="1">
+        <v>912607389</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" s="1">
+        <v>752617779</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="1">
+        <v>752613562</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="6" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="1">
+        <v>670780170</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="6">
+        <v>814004222</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="1">
+        <v>312624232</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="1">
+        <v>751333246</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" s="1">
+        <v>942612086</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1">
+        <v>922614250</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1">
+        <v>944167006</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1">
+        <v>670017755</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1">
+        <v>722604808</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1">
+        <v>752619445</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1">
+        <v>546282336</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1">
+        <v>542666623</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="6">
+        <v>694038936</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="A138" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D138" s="6"/>
+      <c r="E138" s="16"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="6" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="6">
+        <v>782666390</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="6" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="6" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="6">
+        <v>692682321</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="11">
+        <v>942615295</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="11">
+        <v>752600353</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="11">
+        <v>922619275</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="11">
+        <v>670000058</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="11">
+        <v>750068165</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" s="1">
+        <v>132663253</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" s="1">
+        <v>752613166</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" s="6">
+        <v>920813623</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" s="6">
+        <v>244001517</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="1">
+        <v>772603221</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" s="1">
+        <v>752619320</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="6" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="6">
+        <v>751720673</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" s="6" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="6" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="1">
+        <v>752630194</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="1">
+        <v>750067456</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="1">
+        <v>782714448</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" s="1">
+        <v>752635326</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" s="1">
+        <v>930030531</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" s="1">
+        <v>912607462</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="6">
+        <v>940024359</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="2"/>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" s="2"/>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="2"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="2"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="2"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="2"/>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" s="2"/>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" s="2"/>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="2"/>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" s="2"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
